--- a/managementcmdfiles/Lform.xlsx
+++ b/managementcmdfiles/Lform.xlsx
@@ -1917,7 +1917,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1928,6 +1928,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1972,7 +1984,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2005,7 +2017,47 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2018,6 +2070,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF5EB91E"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2029,9 +2141,9 @@
   <dimension ref="A1:H320"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A238" activeCellId="0" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2090,24 +2202,24 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="9" t="n">
         <v>90002</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -2119,7 +2231,7 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="5"/>
@@ -2139,7 +2251,7 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
@@ -2159,7 +2271,7 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="5"/>
@@ -2179,7 +2291,7 @@
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="5"/>
@@ -2199,7 +2311,7 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="5"/>
@@ -2219,7 +2331,7 @@
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="5"/>
@@ -2239,7 +2351,7 @@
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="5"/>
@@ -2259,7 +2371,7 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="5"/>
@@ -2279,7 +2391,7 @@
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="5"/>
@@ -2299,7 +2411,7 @@
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="5"/>
@@ -2319,7 +2431,7 @@
       <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="5"/>
@@ -2339,7 +2451,7 @@
       <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="5"/>
@@ -2359,7 +2471,7 @@
       <c r="C16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="5"/>
@@ -2379,7 +2491,7 @@
       <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="5"/>
@@ -2399,7 +2511,7 @@
       <c r="C18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="5"/>
@@ -2419,7 +2531,7 @@
       <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="5"/>
@@ -2439,7 +2551,7 @@
       <c r="C20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="5"/>
@@ -2459,7 +2571,7 @@
       <c r="C21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="5"/>
@@ -2479,7 +2591,7 @@
       <c r="C22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="5"/>
@@ -2499,7 +2611,7 @@
       <c r="C23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="5"/>
@@ -2519,7 +2631,7 @@
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="5"/>
@@ -2539,7 +2651,7 @@
       <c r="C25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E25" s="5"/>
@@ -2559,7 +2671,7 @@
       <c r="C26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="5"/>
@@ -2579,7 +2691,7 @@
       <c r="C27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="5"/>
@@ -2599,7 +2711,7 @@
       <c r="C28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="5"/>
@@ -2619,7 +2731,7 @@
       <c r="C29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="5"/>
@@ -2639,7 +2751,7 @@
       <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="5"/>
@@ -2659,7 +2771,7 @@
       <c r="C31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="5"/>
@@ -2679,7 +2791,7 @@
       <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="5"/>
@@ -2699,7 +2811,7 @@
       <c r="C33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="5"/>
@@ -2719,7 +2831,7 @@
       <c r="C34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="5"/>
@@ -2739,7 +2851,7 @@
       <c r="C35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="5"/>
@@ -2759,7 +2871,7 @@
       <c r="C36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="5"/>
@@ -2779,7 +2891,7 @@
       <c r="C37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="5"/>
@@ -2799,7 +2911,7 @@
       <c r="C38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E38" s="5"/>
@@ -2819,7 +2931,7 @@
       <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E39" s="5"/>
@@ -2839,7 +2951,7 @@
       <c r="C40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="5"/>
@@ -2859,7 +2971,7 @@
       <c r="C41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E41" s="5"/>
@@ -2879,7 +2991,7 @@
       <c r="C42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="5"/>
@@ -2899,7 +3011,7 @@
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="5"/>
@@ -2919,7 +3031,7 @@
       <c r="C44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E44" s="5"/>
@@ -2939,7 +3051,7 @@
       <c r="C45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="5"/>
@@ -2959,7 +3071,7 @@
       <c r="C46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="5"/>
@@ -2979,7 +3091,7 @@
       <c r="C47" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E47" s="5"/>
@@ -2999,7 +3111,7 @@
       <c r="C48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E48" s="5"/>
@@ -3019,7 +3131,7 @@
       <c r="C49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="5"/>
@@ -3039,7 +3151,7 @@
       <c r="C50" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="5"/>
@@ -3059,7 +3171,7 @@
       <c r="C51" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="12" t="s">
         <v>144</v>
       </c>
       <c r="E51" s="5"/>
@@ -3079,7 +3191,7 @@
       <c r="C52" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="5"/>
@@ -3099,7 +3211,7 @@
       <c r="C53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E53" s="5"/>
@@ -3119,7 +3231,7 @@
       <c r="C54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E54" s="5"/>
@@ -3139,7 +3251,7 @@
       <c r="C55" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E55" s="5"/>
@@ -3159,7 +3271,7 @@
       <c r="C56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="5"/>
@@ -3179,7 +3291,7 @@
       <c r="C57" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="12" t="s">
         <v>144</v>
       </c>
       <c r="E57" s="5"/>
@@ -3199,7 +3311,7 @@
       <c r="C58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E58" s="5"/>
@@ -3219,7 +3331,7 @@
       <c r="C59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="5"/>
@@ -3239,7 +3351,7 @@
       <c r="C60" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E60" s="5"/>
@@ -3259,7 +3371,7 @@
       <c r="C61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E61" s="5"/>
@@ -3279,7 +3391,7 @@
       <c r="C62" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E62" s="5"/>
@@ -3299,7 +3411,7 @@
       <c r="C63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="5"/>
@@ -3319,7 +3431,7 @@
       <c r="C64" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E64" s="5"/>
@@ -3339,7 +3451,7 @@
       <c r="C65" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E65" s="5"/>
@@ -3359,7 +3471,7 @@
       <c r="C66" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E66" s="5"/>
@@ -3395,7 +3507,7 @@
       <c r="C68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E68" s="5"/>
@@ -3415,7 +3527,7 @@
       <c r="C69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E69" s="5"/>
@@ -3435,7 +3547,7 @@
       <c r="C70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E70" s="5"/>
@@ -3455,7 +3567,7 @@
       <c r="C71" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="5"/>
@@ -3475,7 +3587,7 @@
       <c r="C72" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E72" s="5"/>
@@ -3495,7 +3607,7 @@
       <c r="C73" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E73" s="5"/>
@@ -3515,7 +3627,7 @@
       <c r="C74" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E74" s="5"/>
@@ -3535,7 +3647,7 @@
       <c r="C75" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E75" s="5"/>
@@ -3555,7 +3667,7 @@
       <c r="C76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E76" s="5"/>
@@ -3575,7 +3687,7 @@
       <c r="C77" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E77" s="5"/>
@@ -3595,7 +3707,7 @@
       <c r="C78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E78" s="5"/>
@@ -3615,7 +3727,7 @@
       <c r="C79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="5"/>
@@ -3635,7 +3747,7 @@
       <c r="C80" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="5"/>
@@ -3655,7 +3767,7 @@
       <c r="C81" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E81" s="5"/>
@@ -3675,7 +3787,7 @@
       <c r="C82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E82" s="5"/>
@@ -3695,7 +3807,7 @@
       <c r="C83" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E83" s="5"/>
@@ -3715,7 +3827,7 @@
       <c r="C84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="5"/>
@@ -3735,7 +3847,7 @@
       <c r="C85" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E85" s="5"/>
@@ -3755,7 +3867,7 @@
       <c r="C86" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="5"/>
@@ -3775,7 +3887,7 @@
       <c r="C87" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="12" t="s">
         <v>206</v>
       </c>
       <c r="E87" s="5"/>
@@ -3795,7 +3907,7 @@
       <c r="C88" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="12" t="s">
         <v>218</v>
       </c>
       <c r="E88" s="5"/>
@@ -3815,7 +3927,7 @@
       <c r="C89" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="12" t="s">
         <v>208</v>
       </c>
       <c r="E89" s="5"/>
@@ -3835,7 +3947,7 @@
       <c r="C90" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="12" t="s">
         <v>223</v>
       </c>
       <c r="E90" s="5"/>
@@ -3855,7 +3967,7 @@
       <c r="C91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="5"/>
@@ -3875,7 +3987,7 @@
       <c r="C92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E92" s="5"/>
@@ -3895,7 +4007,7 @@
       <c r="C93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E93" s="5"/>
@@ -3915,7 +4027,7 @@
       <c r="C94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="5"/>
@@ -3935,7 +4047,7 @@
       <c r="C95" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="12" t="s">
         <v>235</v>
       </c>
       <c r="E95" s="5"/>
@@ -3955,7 +4067,7 @@
       <c r="C96" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E96" s="5"/>
@@ -3975,7 +4087,7 @@
       <c r="C97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="12" t="s">
         <v>224</v>
       </c>
       <c r="E97" s="5"/>
@@ -3995,7 +4107,7 @@
       <c r="C98" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E98" s="5"/>
@@ -4015,7 +4127,7 @@
       <c r="C99" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="12" t="s">
         <v>230</v>
       </c>
       <c r="E99" s="5"/>
@@ -4035,7 +4147,7 @@
       <c r="C100" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="12" t="s">
         <v>228</v>
       </c>
       <c r="E100" s="5"/>
@@ -4055,7 +4167,7 @@
       <c r="C101" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="12" t="s">
         <v>226</v>
       </c>
       <c r="E101" s="5"/>
@@ -4075,7 +4187,7 @@
       <c r="C102" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E102" s="5"/>
@@ -4095,7 +4207,7 @@
       <c r="C103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E103" s="5"/>
@@ -4115,7 +4227,7 @@
       <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E104" s="5"/>
@@ -4135,7 +4247,7 @@
       <c r="C105" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E105" s="5"/>
@@ -4155,7 +4267,7 @@
       <c r="C106" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E106" s="5"/>
@@ -4175,7 +4287,7 @@
       <c r="C107" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E107" s="5"/>
@@ -4195,7 +4307,7 @@
       <c r="C108" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E108" s="5"/>
@@ -4215,7 +4327,7 @@
       <c r="C109" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="5"/>
@@ -4235,7 +4347,7 @@
       <c r="C110" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E110" s="5"/>
@@ -4255,7 +4367,7 @@
       <c r="C111" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E111" s="5"/>
@@ -4275,7 +4387,7 @@
       <c r="C112" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E112" s="5"/>
@@ -4295,7 +4407,7 @@
       <c r="C113" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E113" s="5"/>
@@ -4315,7 +4427,7 @@
       <c r="C114" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E114" s="5"/>
@@ -4335,7 +4447,7 @@
       <c r="C115" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E115" s="5"/>
@@ -4355,7 +4467,7 @@
       <c r="C116" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E116" s="5"/>
@@ -4375,7 +4487,7 @@
       <c r="C117" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="12" t="s">
         <v>239</v>
       </c>
       <c r="E117" s="5"/>
@@ -4395,7 +4507,7 @@
       <c r="C118" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E118" s="5"/>
@@ -4415,7 +4527,7 @@
       <c r="C119" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E119" s="5"/>
@@ -4435,7 +4547,7 @@
       <c r="C120" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E120" s="5"/>
@@ -4455,7 +4567,7 @@
       <c r="C121" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E121" s="5"/>
@@ -4475,7 +4587,7 @@
       <c r="C122" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E122" s="5"/>
@@ -4495,7 +4607,7 @@
       <c r="C123" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="12" t="s">
         <v>224</v>
       </c>
       <c r="E123" s="5"/>
@@ -4515,7 +4627,7 @@
       <c r="C124" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E124" s="5"/>
@@ -4535,7 +4647,7 @@
       <c r="C125" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E125" s="5"/>
@@ -4555,7 +4667,7 @@
       <c r="C126" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E126" s="5"/>
@@ -4575,7 +4687,7 @@
       <c r="C127" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E127" s="5"/>
@@ -4595,7 +4707,7 @@
       <c r="C128" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E128" s="5"/>
@@ -4615,7 +4727,7 @@
       <c r="C129" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E129" s="5"/>
@@ -4635,7 +4747,7 @@
       <c r="C130" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E130" s="5"/>
@@ -4655,7 +4767,7 @@
       <c r="C131" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="12" t="s">
         <v>228</v>
       </c>
       <c r="E131" s="5"/>
@@ -4675,7 +4787,7 @@
       <c r="C132" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="12" t="s">
         <v>226</v>
       </c>
       <c r="E132" s="5"/>
@@ -4695,7 +4807,7 @@
       <c r="C133" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="12" t="s">
         <v>230</v>
       </c>
       <c r="E133" s="5"/>
@@ -4715,7 +4827,7 @@
       <c r="C134" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="12" t="s">
         <v>303</v>
       </c>
       <c r="E134" s="5"/>
@@ -4735,7 +4847,7 @@
       <c r="C135" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="12" t="s">
         <v>307</v>
       </c>
       <c r="E135" s="5"/>
@@ -4755,7 +4867,7 @@
       <c r="C136" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E136" s="5"/>
@@ -4791,7 +4903,7 @@
       <c r="C138" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="12" t="s">
         <v>165</v>
       </c>
       <c r="E138" s="5"/>
@@ -4827,7 +4939,7 @@
       <c r="C140" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E140" s="5"/>
@@ -4847,7 +4959,7 @@
       <c r="C141" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E141" s="5"/>
@@ -4867,7 +4979,7 @@
       <c r="C142" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E142" s="5"/>
@@ -4903,7 +5015,7 @@
       <c r="C144" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E144" s="5"/>
@@ -4923,7 +5035,7 @@
       <c r="C145" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="12" t="s">
         <v>283</v>
       </c>
       <c r="E145" s="5"/>
@@ -4943,7 +5055,7 @@
       <c r="C146" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E146" s="5"/>
@@ -4963,7 +5075,7 @@
       <c r="C147" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="12" t="s">
         <v>261</v>
       </c>
       <c r="E147" s="5"/>
@@ -4983,7 +5095,7 @@
       <c r="C148" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="12" t="s">
         <v>263</v>
       </c>
       <c r="E148" s="5"/>
@@ -5003,7 +5115,7 @@
       <c r="C149" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="12" t="s">
         <v>292</v>
       </c>
       <c r="E149" s="5"/>
@@ -5023,7 +5135,7 @@
       <c r="C150" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="12" t="s">
         <v>294</v>
       </c>
       <c r="E150" s="5"/>
@@ -5043,7 +5155,7 @@
       <c r="C151" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E151" s="5"/>
@@ -5063,7 +5175,7 @@
       <c r="C152" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E152" s="5"/>
@@ -5083,7 +5195,7 @@
       <c r="C153" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="12" t="s">
         <v>163</v>
       </c>
       <c r="E153" s="5"/>
@@ -5103,7 +5215,7 @@
       <c r="C154" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E154" s="5"/>
@@ -5123,7 +5235,7 @@
       <c r="C155" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="12" t="s">
         <v>199</v>
       </c>
       <c r="E155" s="5"/>
@@ -5143,7 +5255,7 @@
       <c r="C156" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E156" s="5"/>
@@ -5163,7 +5275,7 @@
       <c r="C157" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E157" s="5"/>
@@ -5183,7 +5295,7 @@
       <c r="C158" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="12" t="s">
         <v>163</v>
       </c>
       <c r="E158" s="5"/>
@@ -5203,7 +5315,7 @@
       <c r="C159" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E159" s="5"/>
@@ -5223,7 +5335,7 @@
       <c r="C160" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E160" s="5"/>
@@ -5243,7 +5355,7 @@
       <c r="C161" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="12" t="s">
         <v>348</v>
       </c>
       <c r="E161" s="5"/>
@@ -5295,7 +5407,7 @@
       <c r="C164" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="5"/>
@@ -5315,7 +5427,7 @@
       <c r="C165" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="12" t="s">
         <v>313</v>
       </c>
       <c r="E165" s="5"/>
@@ -5335,7 +5447,7 @@
       <c r="C166" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E166" s="5"/>
@@ -5387,7 +5499,7 @@
       <c r="C169" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E169" s="5"/>
@@ -5407,7 +5519,7 @@
       <c r="C170" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E170" s="5"/>
@@ -5427,7 +5539,7 @@
       <c r="C171" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E171" s="5"/>
@@ -5447,7 +5559,7 @@
       <c r="C172" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E172" s="5"/>
@@ -5483,7 +5595,7 @@
       <c r="C174" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="12" t="s">
         <v>224</v>
       </c>
       <c r="E174" s="5"/>
@@ -5503,7 +5615,7 @@
       <c r="C175" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="12" t="s">
         <v>226</v>
       </c>
       <c r="E175" s="5"/>
@@ -5523,7 +5635,7 @@
       <c r="C176" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="12" t="s">
         <v>230</v>
       </c>
       <c r="E176" s="5"/>
@@ -5543,7 +5655,7 @@
       <c r="C177" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E177" s="5"/>
@@ -6002,532 +6114,532 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="14" t="n">
         <v>90206</v>
       </c>
-      <c r="C206" s="5"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="7" t="s">
+      <c r="C206" s="14"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="H206" s="4"/>
+      <c r="H206" s="14"/>
     </row>
     <row r="207" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="14" t="n">
         <v>90207</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="E207" s="5"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="7" t="s">
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="H207" s="4"/>
+      <c r="H207" s="14"/>
     </row>
     <row r="208" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="14" t="n">
         <v>90208</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D208" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E208" s="5"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="7" t="s">
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="H208" s="4"/>
+      <c r="H208" s="14"/>
     </row>
     <row r="209" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="14" t="n">
         <v>90209</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D209" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E209" s="5"/>
-      <c r="F209" s="4"/>
-      <c r="G209" s="7" t="s">
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="H209" s="4"/>
+      <c r="H209" s="14"/>
     </row>
     <row r="210" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="14" t="n">
         <v>90210</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D210" s="8" t="s">
+      <c r="D210" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E210" s="5"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="7" t="s">
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="H210" s="4"/>
+      <c r="H210" s="14"/>
     </row>
     <row r="211" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="14" t="n">
         <v>90211</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D211" s="8" t="s">
+      <c r="D211" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="E211" s="5"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="7" t="s">
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="H211" s="4"/>
+      <c r="H211" s="14"/>
     </row>
     <row r="212" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="14" t="n">
         <v>90212</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E212" s="5"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="7" t="s">
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H212" s="4"/>
+      <c r="H212" s="14"/>
     </row>
     <row r="213" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="14" t="n">
         <v>90213</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D213" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E213" s="5"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="7" t="s">
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="H213" s="4"/>
+      <c r="H213" s="14"/>
     </row>
     <row r="214" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="14" t="n">
         <v>90214</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D214" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="E214" s="5"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="7" t="s">
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="H214" s="4"/>
+      <c r="H214" s="14"/>
     </row>
     <row r="215" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="14" t="n">
         <v>90215</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D215" s="8" t="s">
+      <c r="D215" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E215" s="5"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="7" t="s">
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="H215" s="4"/>
+      <c r="H215" s="14"/>
     </row>
     <row r="216" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="14" t="n">
         <v>90217</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="D216" s="8" t="s">
+      <c r="D216" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E216" s="5"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="7" t="s">
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="H216" s="4"/>
+      <c r="H216" s="14"/>
     </row>
     <row r="217" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="14" t="n">
         <v>90218</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="E217" s="5"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="7" t="s">
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="H217" s="4"/>
+      <c r="H217" s="14"/>
     </row>
     <row r="218" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="14" t="n">
         <v>90219</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="E218" s="5"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="7" t="s">
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="H218" s="4"/>
+      <c r="H218" s="14"/>
     </row>
     <row r="219" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="14" t="n">
         <v>90220</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E219" s="5"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="7" t="s">
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="H219" s="4"/>
+      <c r="H219" s="14"/>
     </row>
     <row r="220" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="14" t="n">
         <v>90221</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D220" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E220" s="5"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="7" t="s">
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="H220" s="4"/>
+      <c r="H220" s="14"/>
     </row>
     <row r="221" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="14" t="n">
         <v>90222</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E221" s="5"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="7" t="s">
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="H221" s="4"/>
+      <c r="H221" s="14"/>
     </row>
     <row r="222" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="14" t="n">
         <v>90223</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D222" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="E222" s="5"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="7" t="s">
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="H222" s="4"/>
+      <c r="H222" s="14"/>
     </row>
     <row r="223" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="14" t="n">
         <v>90224</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="D223" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E223" s="5"/>
-      <c r="F223" s="4"/>
-      <c r="G223" s="7" t="s">
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="H223" s="4"/>
+      <c r="H223" s="14"/>
     </row>
     <row r="224" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="14" t="n">
         <v>90225</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E224" s="5"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="7" t="s">
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="H224" s="4"/>
+      <c r="H224" s="14"/>
     </row>
     <row r="225" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="14" t="n">
         <v>90226</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D225" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E225" s="5"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="7" t="s">
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="H225" s="4"/>
+      <c r="H225" s="14"/>
     </row>
     <row r="226" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="14" t="n">
         <v>90227</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D226" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E226" s="5"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="7" t="s">
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="H226" s="4"/>
+      <c r="H226" s="14"/>
     </row>
     <row r="227" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="14" t="n">
         <v>90228</v>
       </c>
-      <c r="C227" s="5"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="7" t="s">
+      <c r="C227" s="14"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="H227" s="4"/>
+      <c r="H227" s="14"/>
     </row>
     <row r="228" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="14" t="n">
         <v>90229</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D228" s="8" t="s">
+      <c r="D228" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="E228" s="5"/>
-      <c r="F228" s="4"/>
-      <c r="G228" s="7" t="s">
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="H228" s="4"/>
+      <c r="H228" s="14"/>
     </row>
     <row r="229" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="14" t="n">
         <v>90230</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="D229" s="8" t="s">
+      <c r="D229" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E229" s="5"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="7" t="s">
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="H229" s="4"/>
+      <c r="H229" s="14"/>
     </row>
     <row r="230" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="14" t="n">
         <v>90231</v>
       </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="4"/>
-      <c r="G230" s="7" t="s">
+      <c r="C230" s="14"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="H230" s="4"/>
+      <c r="H230" s="14"/>
     </row>
     <row r="231" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="9" t="n">
         <v>90232</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D231" s="8" t="s">
+      <c r="D231" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E231" s="5"/>
-      <c r="F231" s="4"/>
-      <c r="G231" s="7" t="s">
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="H231" s="4"/>
+      <c r="H231" s="9"/>
     </row>
     <row r="232" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="14" t="n">
         <v>90233</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="D232" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="E232" s="5"/>
-      <c r="F232" s="4"/>
-      <c r="G232" s="7" t="s">
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="H232" s="4"/>
+      <c r="H232" s="14"/>
     </row>
     <row r="233" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
@@ -6539,7 +6651,7 @@
       <c r="C233" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D233" s="8" t="s">
+      <c r="D233" s="12" t="s">
         <v>323</v>
       </c>
       <c r="E233" s="5"/>
@@ -6550,24 +6662,24 @@
       <c r="H233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="14" t="n">
         <v>90235</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="D234" s="8" t="s">
+      <c r="D234" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="E234" s="5"/>
-      <c r="F234" s="4"/>
-      <c r="G234" s="7" t="s">
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="H234" s="4"/>
+      <c r="H234" s="14"/>
     </row>
     <row r="235" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
@@ -6579,7 +6691,7 @@
       <c r="C235" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D235" s="8" t="s">
+      <c r="D235" s="12" t="s">
         <v>304</v>
       </c>
       <c r="E235" s="5"/>
@@ -6599,7 +6711,7 @@
       <c r="C236" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D236" s="8" t="s">
+      <c r="D236" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E236" s="5"/>
@@ -6619,7 +6731,7 @@
       <c r="C237" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D237" s="8" t="s">
+      <c r="D237" s="12" t="s">
         <v>290</v>
       </c>
       <c r="E237" s="5"/>
@@ -6630,24 +6742,24 @@
       <c r="H237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="9" t="n">
         <v>90239</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="D238" s="8" t="s">
+      <c r="D238" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E238" s="5"/>
-      <c r="F238" s="4"/>
-      <c r="G238" s="7" t="s">
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="H238" s="4"/>
+      <c r="H238" s="9"/>
     </row>
     <row r="239" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
@@ -6659,7 +6771,7 @@
       <c r="C239" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D239" s="8" t="s">
+      <c r="D239" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E239" s="5"/>
@@ -6679,7 +6791,7 @@
       <c r="C240" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D240" s="8" t="s">
+      <c r="D240" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E240" s="5"/>
@@ -6699,7 +6811,7 @@
       <c r="C241" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D241" s="8" t="s">
+      <c r="D241" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E241" s="5"/>
@@ -6719,7 +6831,7 @@
       <c r="C242" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="D242" s="12" t="s">
         <v>323</v>
       </c>
       <c r="E242" s="5"/>
@@ -6730,64 +6842,64 @@
       <c r="H242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="14" t="n">
         <v>90244</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="D243" s="8" t="s">
+      <c r="D243" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="E243" s="5"/>
-      <c r="F243" s="4"/>
-      <c r="G243" s="7" t="s">
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="H243" s="4"/>
+      <c r="H243" s="14"/>
     </row>
     <row r="244" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="9" t="n">
         <v>90245</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="D244" s="8" t="s">
+      <c r="D244" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E244" s="5"/>
-      <c r="F244" s="4"/>
-      <c r="G244" s="7" t="s">
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="H244" s="4"/>
+      <c r="H244" s="9"/>
     </row>
     <row r="245" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="9" t="n">
         <v>90246</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="D245" s="8" t="s">
+      <c r="D245" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E245" s="5"/>
-      <c r="F245" s="4"/>
-      <c r="G245" s="7" t="s">
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="H245" s="4"/>
+      <c r="H245" s="9"/>
     </row>
     <row r="246" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
@@ -6822,24 +6934,24 @@
       <c r="H247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="14" t="n">
         <v>90249</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="D248" s="8" t="s">
+      <c r="D248" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E248" s="5"/>
-      <c r="F248" s="4"/>
-      <c r="G248" s="7" t="s">
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="H248" s="4"/>
+      <c r="H248" s="14"/>
     </row>
     <row r="249" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
@@ -6867,7 +6979,7 @@
       <c r="C250" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D250" s="8" t="s">
+      <c r="D250" s="12" t="s">
         <v>186</v>
       </c>
       <c r="E250" s="5"/>
@@ -6894,24 +7006,24 @@
       <c r="H251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="9" t="n">
         <v>90253</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="D252" s="8" t="s">
+      <c r="D252" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E252" s="5"/>
-      <c r="F252" s="4"/>
-      <c r="G252" s="7" t="s">
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="H252" s="4"/>
+      <c r="H252" s="9"/>
     </row>
     <row r="253" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
@@ -6939,7 +7051,7 @@
       <c r="C254" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D254" s="8" t="s">
+      <c r="D254" s="12" t="s">
         <v>147</v>
       </c>
       <c r="E254" s="5"/>
@@ -6975,7 +7087,7 @@
       <c r="C256" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D256" s="8" t="s">
+      <c r="D256" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E256" s="5"/>
@@ -6995,7 +7107,7 @@
       <c r="C257" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D257" s="8" t="s">
+      <c r="D257" s="12" t="s">
         <v>137</v>
       </c>
       <c r="E257" s="5"/>
@@ -7015,7 +7127,7 @@
       <c r="C258" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D258" s="8" t="s">
+      <c r="D258" s="12" t="s">
         <v>145</v>
       </c>
       <c r="E258" s="5"/>
@@ -7035,7 +7147,7 @@
       <c r="C259" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D259" s="8" t="s">
+      <c r="D259" s="12" t="s">
         <v>568</v>
       </c>
       <c r="E259" s="5"/>
@@ -7071,7 +7183,7 @@
       <c r="C261" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D261" s="8" t="s">
+      <c r="D261" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E261" s="5"/>
@@ -7107,7 +7219,7 @@
       <c r="C263" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D263" s="8" t="s">
+      <c r="D263" s="12" t="s">
         <v>159</v>
       </c>
       <c r="E263" s="5"/>
@@ -7143,7 +7255,7 @@
       <c r="C265" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D265" s="8" t="s">
+      <c r="D265" s="12" t="s">
         <v>311</v>
       </c>
       <c r="E265" s="5"/>
@@ -7163,7 +7275,7 @@
       <c r="C266" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D266" s="8" t="s">
+      <c r="D266" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E266" s="5"/>
@@ -7215,7 +7327,7 @@
       <c r="C269" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D269" s="8" t="s">
+      <c r="D269" s="12" t="s">
         <v>151</v>
       </c>
       <c r="E269" s="5"/>
@@ -7235,7 +7347,7 @@
       <c r="C270" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D270" s="8" t="s">
+      <c r="D270" s="12" t="s">
         <v>288</v>
       </c>
       <c r="E270" s="5"/>
@@ -7271,7 +7383,7 @@
       <c r="C272" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D272" s="8" t="s">
+      <c r="D272" s="12" t="s">
         <v>153</v>
       </c>
       <c r="E272" s="5"/>
@@ -7291,7 +7403,7 @@
       <c r="C273" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D273" s="8" t="s">
+      <c r="D273" s="12" t="s">
         <v>323</v>
       </c>
       <c r="E273" s="5"/>
@@ -7311,7 +7423,7 @@
       <c r="C274" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D274" s="8" t="s">
+      <c r="D274" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E274" s="5"/>
@@ -7331,7 +7443,7 @@
       <c r="C275" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D275" s="8" t="s">
+      <c r="D275" s="12" t="s">
         <v>346</v>
       </c>
       <c r="E275" s="5"/>
@@ -7383,7 +7495,7 @@
       <c r="C278" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D278" s="8" t="s">
+      <c r="D278" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E278" s="5"/>
@@ -7403,7 +7515,7 @@
       <c r="C279" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D279" s="8" t="s">
+      <c r="D279" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E279" s="5"/>
